--- a/data/trans_orig/P16A_n_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R2-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>119148</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>101227</v>
+        <v>101655</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>138133</v>
+        <v>140273</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1716801001701509</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1458574335824625</v>
+        <v>0.1464741965217093</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1990353392830688</v>
+        <v>0.2021190802006435</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>185</v>
@@ -765,19 +765,19 @@
         <v>181591</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>158933</v>
+        <v>161066</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>205275</v>
+        <v>203669</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2638061519533066</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2308901944244217</v>
+        <v>0.2339880385682943</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2982125142433156</v>
+        <v>0.2958796712672818</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>307</v>
@@ -786,19 +786,19 @@
         <v>300739</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>274308</v>
+        <v>271334</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>333549</v>
+        <v>329750</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2175544873142433</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1984337936755655</v>
+        <v>0.1962823911687162</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2412892031891295</v>
+        <v>0.2385409771661275</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>574864</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>555879</v>
+        <v>553739</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>592785</v>
+        <v>592357</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8283198998298491</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8009646607169313</v>
+        <v>0.7978809197993565</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8541425664175375</v>
+        <v>0.8535258034782907</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>511</v>
@@ -836,19 +836,19 @@
         <v>506760</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>483076</v>
+        <v>484682</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>529418</v>
+        <v>527285</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7361938480466934</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7017874857566845</v>
+        <v>0.7041203287327182</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7691098055755783</v>
+        <v>0.7660119614317059</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1072</v>
@@ -857,19 +857,19 @@
         <v>1081624</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1048814</v>
+        <v>1052613</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1108055</v>
+        <v>1111029</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7824455126857567</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7587107968108708</v>
+        <v>0.7614590228338726</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8015662063244348</v>
+        <v>0.8037176088312841</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>174607</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>150855</v>
+        <v>151132</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>197629</v>
+        <v>200185</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1815415175158646</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1568463843729048</v>
+        <v>0.1571344797400619</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2054782446357531</v>
+        <v>0.2081356670135205</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>256</v>
@@ -982,19 +982,19 @@
         <v>278239</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>248124</v>
+        <v>249087</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>305163</v>
+        <v>307757</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2873198879645624</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2562227566621303</v>
+        <v>0.2572166047459704</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3151227888165451</v>
+        <v>0.3178020679708666</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>425</v>
@@ -1003,19 +1003,19 @@
         <v>452845</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>416492</v>
+        <v>415437</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>489897</v>
+        <v>492604</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2346113588628044</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2157775614874022</v>
+        <v>0.2152307561043386</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2538071324334907</v>
+        <v>0.2552095616379261</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>787193</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>764171</v>
+        <v>761615</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>810945</v>
+        <v>810668</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8184584824841354</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.794521755364247</v>
+        <v>0.7918643329864795</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8431536156270952</v>
+        <v>0.8428655202599382</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>652</v>
@@ -1053,19 +1053,19 @@
         <v>690154</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>663230</v>
+        <v>660636</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>720269</v>
+        <v>719306</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7126801120354377</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6848772111834549</v>
+        <v>0.6821979320291335</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7437772433378698</v>
+        <v>0.7427833952540296</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1379</v>
@@ -1074,19 +1074,19 @@
         <v>1477348</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1440296</v>
+        <v>1437589</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1513701</v>
+        <v>1514756</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7653886411371956</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7461928675665092</v>
+        <v>0.7447904383620738</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7842224385125977</v>
+        <v>0.7847692438956612</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>111142</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>94215</v>
+        <v>92865</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>133145</v>
+        <v>131010</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1638025895983694</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1388557527892446</v>
+        <v>0.1368661694712042</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1962322121553222</v>
+        <v>0.1930848929881767</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>218</v>
@@ -1199,19 +1199,19 @@
         <v>213388</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>191182</v>
+        <v>190520</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>237003</v>
+        <v>239151</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3120435551780663</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2795709031589944</v>
+        <v>0.2786031880424363</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3465758548260449</v>
+        <v>0.3497175971311841</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>327</v>
@@ -1220,19 +1220,19 @@
         <v>324530</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>294623</v>
+        <v>291969</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>356732</v>
+        <v>353210</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2382131736184105</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2162606361525047</v>
+        <v>0.2143125302206052</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2618505511427349</v>
+        <v>0.2592655397685126</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>567367</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>545364</v>
+        <v>547499</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>584294</v>
+        <v>585644</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8361974104016306</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8037677878446777</v>
+        <v>0.8069151070118233</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8611442472107551</v>
+        <v>0.8631338305287956</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>478</v>
@@ -1270,19 +1270,19 @@
         <v>470453</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>446838</v>
+        <v>444690</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>492659</v>
+        <v>493321</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6879564448219337</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6534241451739552</v>
+        <v>0.6502824028688159</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7204290968410056</v>
+        <v>0.7213968119575637</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1010</v>
@@ -1291,19 +1291,19 @@
         <v>1037820</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1005618</v>
+        <v>1009140</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1067727</v>
+        <v>1070381</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7617868263815895</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7381494488572652</v>
+        <v>0.7407344602314875</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7837393638474952</v>
+        <v>0.785687469779395</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>167204</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>147295</v>
+        <v>144531</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>191643</v>
+        <v>190391</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1774574800506657</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1563274951043483</v>
+        <v>0.1533933944676511</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2033946459137742</v>
+        <v>0.202065593113964</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>319</v>
@@ -1416,19 +1416,19 @@
         <v>333296</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>303236</v>
+        <v>302671</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>362132</v>
+        <v>363925</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3209049001560309</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2919631845010542</v>
+        <v>0.2914187393323026</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3486691950324264</v>
+        <v>0.3503955770493803</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>503</v>
@@ -1437,19 +1437,19 @@
         <v>500500</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>464918</v>
+        <v>463804</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>539654</v>
+        <v>538243</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2526713570539372</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2347081026200082</v>
+        <v>0.2341457710563702</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2724377283204225</v>
+        <v>0.2717253898340081</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>775018</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>750579</v>
+        <v>751831</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>794927</v>
+        <v>797691</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8225425199493342</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7966053540862263</v>
+        <v>0.797934406886036</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8436725048956518</v>
+        <v>0.846606605532349</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>678</v>
@@ -1487,19 +1487,19 @@
         <v>705316</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>676480</v>
+        <v>674687</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>735376</v>
+        <v>735941</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6790950998439691</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6513308049675731</v>
+        <v>0.6496044229506195</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7080368154989459</v>
+        <v>0.7085812606676973</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1488</v>
@@ -1508,19 +1508,19 @@
         <v>1480334</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1441180</v>
+        <v>1442591</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1515916</v>
+        <v>1517030</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7473286429460628</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7275622716795774</v>
+        <v>0.7282746101659919</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7652918973799918</v>
+        <v>0.7658542289436298</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>572101</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>531347</v>
+        <v>530181</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>614860</v>
+        <v>616674</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1746049280542592</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.162167081398725</v>
+        <v>0.1618109975640701</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1876550404954107</v>
+        <v>0.1882087690837782</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>978</v>
@@ -1633,19 +1633,19 @@
         <v>1006514</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>952948</v>
+        <v>949422</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1056861</v>
+        <v>1057767</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2978558674088527</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2820041681539491</v>
+        <v>0.2809607638758289</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3127551671621425</v>
+        <v>0.3130232135071188</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1562</v>
@@ -1654,19 +1654,19 @@
         <v>1578614</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1514495</v>
+        <v>1511258</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1655316</v>
+        <v>1653263</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2371808704929737</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2275471858814417</v>
+        <v>0.2270608141665972</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2487050156102262</v>
+        <v>0.2483965652012778</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2704442</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2661683</v>
+        <v>2659869</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2745196</v>
+        <v>2746362</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8253950719457408</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8123449595045892</v>
+        <v>0.8117912309162223</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8378329186012747</v>
+        <v>0.8381890024359302</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2319</v>
@@ -1704,19 +1704,19 @@
         <v>2372683</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2322336</v>
+        <v>2321430</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2426249</v>
+        <v>2429775</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7021441325911474</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6872448328378575</v>
+        <v>0.6869767864928813</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7179958318460508</v>
+        <v>0.7190392361241716</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4949</v>
@@ -1725,19 +1725,19 @@
         <v>5077127</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5000425</v>
+        <v>5002478</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5141246</v>
+        <v>5144483</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7628191295070262</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7512949843897736</v>
+        <v>0.7516034347987216</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7724528141185583</v>
+        <v>0.7729391858334027</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>194070</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>170872</v>
+        <v>168959</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>217632</v>
+        <v>219390</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2758753940318512</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2428997148029519</v>
+        <v>0.2401795287502472</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3093699579235109</v>
+        <v>0.3118692569523492</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>273</v>
@@ -2090,19 +2090,19 @@
         <v>293294</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>265328</v>
+        <v>266050</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>318904</v>
+        <v>321068</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4207649407742149</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3806441028377716</v>
+        <v>0.3816796184035889</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4575047746142926</v>
+        <v>0.4606098175891432</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>456</v>
@@ -2111,19 +2111,19 @@
         <v>487364</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>456292</v>
+        <v>452115</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>522443</v>
+        <v>524955</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3479881322626914</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3258023578633132</v>
+        <v>0.3228196295309332</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3730352875808955</v>
+        <v>0.374829014184757</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>509399</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>485837</v>
+        <v>484079</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>532597</v>
+        <v>534510</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7241246059681488</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6906300420764891</v>
+        <v>0.6881307430476508</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7571002851970481</v>
+        <v>0.7598204712497528</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>377</v>
@@ -2161,19 +2161,19 @@
         <v>403756</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>378146</v>
+        <v>375982</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>431722</v>
+        <v>431000</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.579235059225785</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5424952253857074</v>
+        <v>0.5393901824108568</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6193558971622284</v>
+        <v>0.6183203815964115</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>868</v>
@@ -2182,19 +2182,19 @@
         <v>913155</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>878076</v>
+        <v>875564</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>944227</v>
+        <v>948404</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6520118677373086</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6269647124191046</v>
+        <v>0.6251709858152432</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6741976421366869</v>
+        <v>0.6771803704690669</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>249788</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>221982</v>
+        <v>220542</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>280396</v>
+        <v>281732</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2453843592106757</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2180683181175373</v>
+        <v>0.2166533956451498</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2754528815811691</v>
+        <v>0.2767651419540789</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>353</v>
@@ -2307,19 +2307,19 @@
         <v>387592</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>354773</v>
+        <v>357862</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>419419</v>
+        <v>420084</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3755070980022974</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3437112579211378</v>
+        <v>0.3467041172299307</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4063416015103405</v>
+        <v>0.4069859783595058</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>580</v>
@@ -2328,19 +2328,19 @@
         <v>637381</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>594502</v>
+        <v>592738</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>683249</v>
+        <v>681481</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3108975390617199</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2899824770933154</v>
+        <v>0.2891222248407628</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3332709081801642</v>
+        <v>0.3324087144161944</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>768159</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>737551</v>
+        <v>736215</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>795965</v>
+        <v>797405</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7546156407893243</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.724547118418831</v>
+        <v>0.7232348580459211</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7819316818824628</v>
+        <v>0.7833466043548504</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>587</v>
@@ -2378,19 +2378,19 @@
         <v>644592</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>612765</v>
+        <v>612100</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>677411</v>
+        <v>674322</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6244929019977026</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5936583984896594</v>
+        <v>0.5930140216404937</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.656288742078862</v>
+        <v>0.6532958827700692</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1296</v>
@@ -2399,19 +2399,19 @@
         <v>1412750</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1366882</v>
+        <v>1368650</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1455629</v>
+        <v>1457393</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6891024609382801</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6667290918198358</v>
+        <v>0.6675912855838058</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7100175229066846</v>
+        <v>0.7108777751592371</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>168468</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>144528</v>
+        <v>144073</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>195103</v>
+        <v>192518</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.222363952829198</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1907648600474621</v>
+        <v>0.1901651273469628</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2575200862357435</v>
+        <v>0.2541082491083088</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>275</v>
@@ -2524,19 +2524,19 @@
         <v>303691</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>278708</v>
+        <v>275726</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>333494</v>
+        <v>332298</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3907625708427128</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3586168143176495</v>
+        <v>0.354780618610105</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.429110906112695</v>
+        <v>0.4275717808089391</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>422</v>
@@ -2545,19 +2545,19 @@
         <v>472159</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>435154</v>
+        <v>436137</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>510519</v>
+        <v>512718</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3076358169748305</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2835256965242064</v>
+        <v>0.2841661650395901</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3326293904569102</v>
+        <v>0.334062210943852</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>589155</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>562520</v>
+        <v>565105</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>613095</v>
+        <v>613550</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7776360471708019</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7424799137642566</v>
+        <v>0.7458917508916915</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8092351399525379</v>
+        <v>0.8098348726530371</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>430</v>
@@ -2595,19 +2595,19 @@
         <v>473483</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>443680</v>
+        <v>444876</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>498466</v>
+        <v>501448</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6092374291572872</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5708890938873051</v>
+        <v>0.5724282191910609</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6413831856823505</v>
+        <v>0.645219381389895</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>972</v>
@@ -2616,19 +2616,19 @@
         <v>1062638</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1024278</v>
+        <v>1022079</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1099643</v>
+        <v>1098660</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6923641830251696</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6673706095430898</v>
+        <v>0.6659377890561476</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7164743034757937</v>
+        <v>0.7158338349604099</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>253236</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>224314</v>
+        <v>227576</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>282443</v>
+        <v>281824</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2671998748433172</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2366835404594485</v>
+        <v>0.2401253436415038</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2980177194404398</v>
+        <v>0.2973649100814507</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>416</v>
@@ -2741,19 +2741,19 @@
         <v>438900</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>406392</v>
+        <v>406513</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>471813</v>
+        <v>470774</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4172449989310181</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3863408192770181</v>
+        <v>0.3864560065787913</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4485334256460123</v>
+        <v>0.4475463749588292</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>645</v>
@@ -2762,19 +2762,19 @@
         <v>692136</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>651702</v>
+        <v>649403</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>741861</v>
+        <v>739140</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3461303759846466</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3259095945247661</v>
+        <v>0.3247601970555491</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3709974488239601</v>
+        <v>0.3696363521616011</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>694503</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>665296</v>
+        <v>665915</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>723425</v>
+        <v>720163</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7328001251566828</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7019822805595602</v>
+        <v>0.7026350899185493</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7633164595405515</v>
+        <v>0.7598746563584962</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>587</v>
@@ -2812,19 +2812,19 @@
         <v>613001</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>580088</v>
+        <v>581127</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>645509</v>
+        <v>645388</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5827550010689819</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5514665743539876</v>
+        <v>0.5524536250411709</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.613659180722982</v>
+        <v>0.6135439934212087</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1268</v>
@@ -2833,19 +2833,19 @@
         <v>1307504</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1257779</v>
+        <v>1260500</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1347938</v>
+        <v>1350237</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6538696240153534</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6290025511760399</v>
+        <v>0.6303636478383992</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.674090405475234</v>
+        <v>0.6752398029444513</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>865562</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>808433</v>
+        <v>809937</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>920273</v>
+        <v>923183</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2525876616565865</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2359163946098933</v>
+        <v>0.2363552998640854</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2685533183889923</v>
+        <v>0.2694024069474839</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1317</v>
@@ -2958,19 +2958,19 @@
         <v>1423478</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1368524</v>
+        <v>1365042</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1487093</v>
+        <v>1485925</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4000432683627744</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3845994062765402</v>
+        <v>0.3836209088048492</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4179212969313246</v>
+        <v>0.4175928916533557</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2103</v>
@@ -2979,19 +2979,19 @@
         <v>2289040</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2202425</v>
+        <v>2208685</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2374583</v>
+        <v>2363805</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3277037703365476</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3153037823008362</v>
+        <v>0.3162000005884409</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3399503918535019</v>
+        <v>0.3384073384178909</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2561217</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2506506</v>
+        <v>2503596</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2618346</v>
+        <v>2616842</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7474123383434136</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7314466816110077</v>
+        <v>0.7305975930525163</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7640836053901068</v>
+        <v>0.7636447001359148</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1981</v>
@@ -3029,19 +3029,19 @@
         <v>2134831</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2071216</v>
+        <v>2072384</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2189785</v>
+        <v>2193267</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5999567316372255</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5820787030686755</v>
+        <v>0.5824071083466442</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6154005937234599</v>
+        <v>0.6163790911951508</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4404</v>
@@ -3050,19 +3050,19 @@
         <v>4696048</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4610505</v>
+        <v>4621283</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4782663</v>
+        <v>4776403</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6722962296634524</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.660049608146498</v>
+        <v>0.6615926615821091</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6846962176991638</v>
+        <v>0.6837999994115591</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>150883</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>130894</v>
+        <v>129588</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>175711</v>
+        <v>173299</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2235966289963819</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1939749125238063</v>
+        <v>0.192039583119593</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2603896039596093</v>
+        <v>0.2568156500431342</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>236</v>
@@ -3415,19 +3415,19 @@
         <v>248362</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>224155</v>
+        <v>224600</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>275245</v>
+        <v>275418</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3691260070606774</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3331480415879533</v>
+        <v>0.3338097890055694</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4090803932362259</v>
+        <v>0.4093373854167205</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>388</v>
@@ -3436,19 +3436,19 @@
         <v>399245</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>365547</v>
+        <v>365425</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>432803</v>
+        <v>433139</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2962554352979405</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2712498691457495</v>
+        <v>0.2711595533819393</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3211562692692099</v>
+        <v>0.3214058446688092</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>523917</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>499089</v>
+        <v>501501</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>543906</v>
+        <v>545212</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7764033710036181</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7396103960403907</v>
+        <v>0.7431843499568654</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8060250874761937</v>
+        <v>0.8079604168804068</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>430</v>
@@ -3486,19 +3486,19 @@
         <v>424477</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>397594</v>
+        <v>397421</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>448684</v>
+        <v>448239</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6308739929393227</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5909196067637744</v>
+        <v>0.5906626145832796</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6668519584120468</v>
+        <v>0.6661902109944307</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>930</v>
@@ -3507,19 +3507,19 @@
         <v>948394</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>914836</v>
+        <v>914500</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>982092</v>
+        <v>982214</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7037445647020595</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.67884373073079</v>
+        <v>0.6785941553311907</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7287501308542506</v>
+        <v>0.7288404466180607</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>237712</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>210310</v>
+        <v>211467</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>262654</v>
+        <v>268151</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2324967774880097</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2056961353515143</v>
+        <v>0.2068278473876793</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2568916574729853</v>
+        <v>0.2622678333712726</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>314</v>
@@ -3632,19 +3632,19 @@
         <v>353793</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>323145</v>
+        <v>322538</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>384808</v>
+        <v>386416</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3392357197479913</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3098481222406629</v>
+        <v>0.3092665841085789</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.368973969220653</v>
+        <v>0.3705160759498081</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>543</v>
@@ -3653,19 +3653,19 @@
         <v>591505</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>553026</v>
+        <v>549882</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>631732</v>
+        <v>634919</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2863955135027629</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2677643710878409</v>
+        <v>0.2662424350090692</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3058726222277044</v>
+        <v>0.3074154088794151</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>784719</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>759777</v>
+        <v>754280</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>812121</v>
+        <v>810964</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7675032225119903</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7431083425270145</v>
+        <v>0.7377321666287271</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7943038646484857</v>
+        <v>0.7931721526123208</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>663</v>
@@ -3703,19 +3703,19 @@
         <v>689120</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>658105</v>
+        <v>656497</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>719768</v>
+        <v>720375</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6607642802520087</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6310260307793465</v>
+        <v>0.6294839240501917</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6901518777593367</v>
+        <v>0.6907334158914208</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1385</v>
@@ -3724,19 +3724,19 @@
         <v>1473839</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1433612</v>
+        <v>1430425</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1512318</v>
+        <v>1515462</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7136044864972371</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6941273777722956</v>
+        <v>0.692584591120584</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7322356289121591</v>
+        <v>0.7337575649909307</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>160519</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>138503</v>
+        <v>138283</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>185012</v>
+        <v>183710</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2113337394725847</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1823485812919591</v>
+        <v>0.182058261379546</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2435799024812425</v>
+        <v>0.2418664090889573</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>211</v>
@@ -3849,19 +3849,19 @@
         <v>237976</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>210778</v>
+        <v>209172</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>262673</v>
+        <v>262157</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3031493295927316</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2685033372097711</v>
+        <v>0.2664571677767965</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3346104947199113</v>
+        <v>0.333953913846365</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>364</v>
@@ -3870,19 +3870,19 @@
         <v>398495</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>365540</v>
+        <v>362079</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>434493</v>
+        <v>432871</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2579982207558833</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2366626232185732</v>
+        <v>0.2344218166676452</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2813048625204041</v>
+        <v>0.2802547216637411</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>599033</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>574540</v>
+        <v>575842</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>621049</v>
+        <v>621269</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7886662605274153</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7564200975187576</v>
+        <v>0.7581335909110427</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8176514187080409</v>
+        <v>0.8179417386204541</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>525</v>
@@ -3920,19 +3920,19 @@
         <v>547035</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>522338</v>
+        <v>522854</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>574233</v>
+        <v>575839</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6968506704072684</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6653895052800887</v>
+        <v>0.6660460861536349</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7314966627902287</v>
+        <v>0.7335428322232034</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1068</v>
@@ -3941,19 +3941,19 @@
         <v>1146068</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1110070</v>
+        <v>1111692</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1179023</v>
+        <v>1182484</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7420017792441167</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7186951374795958</v>
+        <v>0.7197452783362589</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7633373767814258</v>
+        <v>0.7655781833323548</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>229852</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>205472</v>
+        <v>202824</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>255922</v>
+        <v>254758</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2451582486279674</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2191546538301629</v>
+        <v>0.2163300587010747</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.272963444540875</v>
+        <v>0.2717227508653235</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>340</v>
@@ -4066,19 +4066,19 @@
         <v>393704</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>361715</v>
+        <v>363600</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>427399</v>
+        <v>426806</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3771913796757968</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3465435689771876</v>
+        <v>0.3483497323125894</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.40947255350703</v>
+        <v>0.4089043526349202</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>575</v>
@@ -4087,19 +4087,19 @@
         <v>623557</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>578274</v>
+        <v>584308</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>665345</v>
+        <v>666423</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3147136974715708</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2918589753798737</v>
+        <v>0.294904650997176</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3358047389817292</v>
+        <v>0.3363484535921421</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>707715</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>681645</v>
+        <v>682809</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>732095</v>
+        <v>734743</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7548417513720327</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.727036555459125</v>
+        <v>0.7282772491346765</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7808453461698371</v>
+        <v>0.7836699412989253</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>619</v>
@@ -4137,19 +4137,19 @@
         <v>650075</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>616380</v>
+        <v>616973</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>682064</v>
+        <v>680179</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6228086203242031</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5905274464929702</v>
+        <v>0.5910956473650799</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6534564310228131</v>
+        <v>0.6516502676874106</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1316</v>
@@ -4158,19 +4158,19 @@
         <v>1357789</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1316001</v>
+        <v>1314923</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1403072</v>
+        <v>1397038</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6852863025284293</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6641952610182709</v>
+        <v>0.663651546407858</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7081410246201264</v>
+        <v>0.7050953490028241</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>778966</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>727453</v>
+        <v>726534</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>825578</v>
+        <v>823441</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2294890506953988</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2143130378385566</v>
+        <v>0.2140421273941102</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2432211743021607</v>
+        <v>0.2425915834669733</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1101</v>
@@ -4283,19 +4283,19 @@
         <v>1233836</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1173318</v>
+        <v>1171096</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1296841</v>
+        <v>1291898</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3480945393985906</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3310209156712248</v>
+        <v>0.330394044515654</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3658697484075641</v>
+        <v>0.3644753589976356</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1870</v>
@@ -4304,19 +4304,19 @@
         <v>2012802</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1933530</v>
+        <v>1940586</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2094580</v>
+        <v>2091869</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2900753972318618</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.278651129595837</v>
+        <v>0.2796680095254647</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3018608980188818</v>
+        <v>0.3014701974636741</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2615384</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2568772</v>
+        <v>2570909</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2666897</v>
+        <v>2667816</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7705109493046012</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7567788256978398</v>
+        <v>0.7574084165330267</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7856869621614436</v>
+        <v>0.7859578726058898</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2237</v>
@@ -4354,19 +4354,19 @@
         <v>2310706</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2247701</v>
+        <v>2252644</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2371224</v>
+        <v>2373446</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6519054606014094</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6341302515924359</v>
+        <v>0.6355246410023644</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6689790843287753</v>
+        <v>0.669605955484346</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4699</v>
@@ -4375,19 +4375,19 @@
         <v>4926090</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4844312</v>
+        <v>4847023</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5005362</v>
+        <v>4998306</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7099246027681382</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6981391019811186</v>
+        <v>0.6985298025363259</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.721348870404163</v>
+        <v>0.7203319904745352</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>221870</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>199777</v>
+        <v>196578</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>250407</v>
+        <v>250111</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3212200738859107</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2892348087502665</v>
+        <v>0.2846027235817033</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3625358536249655</v>
+        <v>0.362107314159566</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>615</v>
@@ -4740,19 +4740,19 @@
         <v>310487</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>288922</v>
+        <v>288600</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>331215</v>
+        <v>331097</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4229034945569006</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3935298175590778</v>
+        <v>0.3930909637531905</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4511364055120459</v>
+        <v>0.4509758321191942</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>900</v>
@@ -4761,19 +4761,19 @@
         <v>532357</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>499120</v>
+        <v>500971</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>568286</v>
+        <v>565407</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3736128531824975</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3502868167586639</v>
+        <v>0.3515857158924205</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3988279255891199</v>
+        <v>0.3968076701941645</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>468840</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>440303</v>
+        <v>440599</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>490933</v>
+        <v>494132</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6787799261140893</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6374641463750345</v>
+        <v>0.6378926858404337</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7107651912497336</v>
+        <v>0.7153972764182966</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>626</v>
@@ -4811,19 +4811,19 @@
         <v>423693</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>402965</v>
+        <v>403083</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>445258</v>
+        <v>445580</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5770965054430993</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5488635944879543</v>
+        <v>0.5490241678808059</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6064701824409225</v>
+        <v>0.6069090362468095</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1071</v>
@@ -4832,19 +4832,19 @@
         <v>892532</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>856603</v>
+        <v>859482</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>925769</v>
+        <v>923918</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6263871468175024</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6011720744108798</v>
+        <v>0.6031923298058361</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6497131832413358</v>
+        <v>0.6484142841075796</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>271903</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>242492</v>
+        <v>242029</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>301096</v>
+        <v>303512</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2592222199090823</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2311835855748398</v>
+        <v>0.2307419926611374</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2870538839999231</v>
+        <v>0.289357443951302</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>689</v>
@@ -4957,19 +4957,19 @@
         <v>426984</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>398982</v>
+        <v>397887</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>453392</v>
+        <v>454270</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3985015229976177</v>
+        <v>0.3985015229976176</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3723678698918836</v>
+        <v>0.3713451279269017</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4231477977651942</v>
+        <v>0.4239676688472378</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>996</v>
@@ -4978,19 +4978,19 @@
         <v>698887</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>658425</v>
+        <v>656063</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>739857</v>
+        <v>739682</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3296027123055753</v>
+        <v>0.3296027123055752</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3105204852576315</v>
+        <v>0.3094067844061709</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3489246689204099</v>
+        <v>0.3488423241136127</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>777014</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>747821</v>
+        <v>745405</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>806425</v>
+        <v>806888</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7407777800909178</v>
+        <v>0.7407777800909179</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.712946116000077</v>
+        <v>0.7106425560486981</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7688164144251601</v>
+        <v>0.7692580073388625</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>828</v>
@@ -5028,19 +5028,19 @@
         <v>644490</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>618082</v>
+        <v>617204</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>672492</v>
+        <v>673587</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6014984770023823</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5768522022348057</v>
+        <v>0.5760323311527621</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6276321301081166</v>
+        <v>0.6286548720730982</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1485</v>
@@ -5049,19 +5049,19 @@
         <v>1421504</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1380534</v>
+        <v>1380709</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1461966</v>
+        <v>1464328</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6703972876944245</v>
+        <v>0.6703972876944246</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.65107533107959</v>
+        <v>0.6511576758863874</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6894795147423685</v>
+        <v>0.6905932155938291</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>242894</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>214257</v>
+        <v>215783</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>272650</v>
+        <v>272474</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3024551204905</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2667964404732449</v>
+        <v>0.2686961880180296</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3395079730479259</v>
+        <v>0.3392886434138531</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>434</v>
@@ -5174,19 +5174,19 @@
         <v>306405</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>282692</v>
+        <v>281962</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>330365</v>
+        <v>334908</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3772253588578796</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3480322564419228</v>
+        <v>0.3471337114061171</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4067234407926864</v>
+        <v>0.4123162485570252</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>675</v>
@@ -5195,19 +5195,19 @@
         <v>549298</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>511244</v>
+        <v>513867</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>588919</v>
+        <v>590084</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3400528326710568</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3164948413850756</v>
+        <v>0.3181183837745269</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3645810213367799</v>
+        <v>0.3653022753321636</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>560179</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>530423</v>
+        <v>530599</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>588816</v>
+        <v>587290</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6975448795094999</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6604920269520743</v>
+        <v>0.6607113565861471</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.733203559526755</v>
+        <v>0.7313038119819705</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>613</v>
@@ -5245,19 +5245,19 @@
         <v>505854</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>481894</v>
+        <v>477351</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>529567</v>
+        <v>530297</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6227746411421203</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5932765592073134</v>
+        <v>0.5876837514429749</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6519677435580773</v>
+        <v>0.6528662885938828</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1048</v>
@@ -5266,19 +5266,19 @@
         <v>1066034</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1026413</v>
+        <v>1025248</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1104088</v>
+        <v>1101465</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6599471673289431</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6354189786632201</v>
+        <v>0.6346977246678368</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6835051586149243</v>
+        <v>0.6818816162254731</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>309898</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>280277</v>
+        <v>279840</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>342578</v>
+        <v>338798</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3130086531147914</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2830900125402257</v>
+        <v>0.2826493662236687</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3460165244514773</v>
+        <v>0.3421988975295031</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>741</v>
@@ -5391,19 +5391,19 @@
         <v>467450</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>438146</v>
+        <v>438414</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>497858</v>
+        <v>496423</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4177236265510142</v>
+        <v>0.4177236265510141</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3915372597867652</v>
+        <v>0.3917763033800969</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.44489678731463</v>
+        <v>0.4436148398856873</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1115</v>
@@ -5412,19 +5412,19 @@
         <v>777348</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>737741</v>
+        <v>733700</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>820908</v>
+        <v>818246</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3685679856664081</v>
+        <v>0.3685679856664082</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3497886880269707</v>
+        <v>0.3478727244612567</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3892211088586874</v>
+        <v>0.3879590052074056</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>680164</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>647484</v>
+        <v>651264</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>709785</v>
+        <v>710222</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6869913468852086</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6539834755485227</v>
+        <v>0.6578011024704968</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7169099874597742</v>
+        <v>0.7173506337763313</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>821</v>
@@ -5462,19 +5462,19 @@
         <v>651591</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>621183</v>
+        <v>622618</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>680895</v>
+        <v>680627</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5822763734489859</v>
+        <v>0.582276373448986</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5551032126853701</v>
+        <v>0.5563851601143129</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.608462740213235</v>
+        <v>0.6082236966199031</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1453</v>
@@ -5483,19 +5483,19 @@
         <v>1331756</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1288196</v>
+        <v>1290858</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1371363</v>
+        <v>1375404</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6314320143335919</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6107788911413125</v>
+        <v>0.6120409947925943</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6502113119730293</v>
+        <v>0.6521272755387435</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1046564</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>995477</v>
+        <v>988017</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1104283</v>
+        <v>1105893</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2962452644078141</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2817844337124596</v>
+        <v>0.279672693088771</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3125834626981234</v>
+        <v>0.313039322144691</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2479</v>
@@ -5608,19 +5608,19 @@
         <v>1511326</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1454484</v>
+        <v>1455857</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1558265</v>
+        <v>1564461</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4044272088066748</v>
+        <v>0.4044272088066747</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3892165264919744</v>
+        <v>0.3895839724207166</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4169880532585944</v>
+        <v>0.4186461278401625</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3686</v>
@@ -5629,19 +5629,19 @@
         <v>2557890</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2480578</v>
+        <v>2468512</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2627536</v>
+        <v>2632182</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3518555473516288</v>
+        <v>0.3518555473516289</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3412208082512383</v>
+        <v>0.3395609369117333</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3614358832386632</v>
+        <v>0.362074918592791</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2486198</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2428479</v>
+        <v>2426869</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2537285</v>
+        <v>2544745</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7037547355921862</v>
+        <v>0.703754735592186</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6874165373018769</v>
+        <v>0.6869606778553089</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7182155662875406</v>
+        <v>0.720327306911229</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2888</v>
@@ -5679,19 +5679,19 @@
         <v>2225628</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2178689</v>
+        <v>2172493</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2282470</v>
+        <v>2281097</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5955727911933254</v>
+        <v>0.5955727911933253</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5830119467414053</v>
+        <v>0.5813538721598376</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6107834735080256</v>
+        <v>0.6104160275792834</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5057</v>
@@ -5700,19 +5700,19 @@
         <v>4711826</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4642180</v>
+        <v>4637534</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4789138</v>
+        <v>4801204</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6481444526483711</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6385641167613368</v>
+        <v>0.637925081407209</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6587791917487616</v>
+        <v>0.6604390630882666</v>
       </c>
     </row>
     <row r="18">
